--- a/30_請求書.xlsx
+++ b/30_請求書.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\am\Documents\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C739F8C-918A-45BF-BA80-0E0BE7324E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3D13FC2C-6A89-4593-B5EF-948049BF8C2A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="商品リスト" sheetId="2" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="見積書" sheetId="3" r:id="rId3"/>
     <sheet name="納品書" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>請求番号：</t>
     <rPh sb="0" eb="4">
@@ -332,6 +331,13 @@
     </rPh>
     <rPh sb="14" eb="15">
       <t>サマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本体価格</t>
+    <rPh sb="0" eb="4">
+      <t>ホンタイカカク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -339,11 +345,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="#,##0&quot;円&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="#,##0&quot;円&quot;"/>
+    <numFmt numFmtId="178" formatCode="[$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,6 +410,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -414,12 +429,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,7 +452,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor rgb="FFCCFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,7 +603,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -607,74 +622,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="38" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -702,13 +666,76 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -717,24 +744,6 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -749,8 +758,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -811,13 +818,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -832,8 +832,39 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FFCCFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -846,12 +877,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2050F745-6482-4EF1-9309-0403C13784B3}" name="テーブル2" displayName="テーブル2" ref="A1:C10" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
-  <autoFilter ref="A1:C10" xr:uid="{2050F745-6482-4EF1-9309-0403C13784B3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="A1:C10" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C10"/>
+  <sortState ref="A2:C10">
+    <sortCondition ref="A2"/>
+  </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{EA5F12D1-E584-42B2-9820-8917B97E1CAC}" name="注文番号" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{9C865D48-1473-4570-8B27-F6E4ECB83BE5}" name="商品名" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{72FD1C19-8022-48BD-979A-D8E013916388}" name="単価" dataDxfId="1" dataCellStyle="桁区切り"/>
+    <tableColumn id="1" name="注文番号" dataDxfId="2"/>
+    <tableColumn id="2" name="商品名" dataDxfId="1"/>
+    <tableColumn id="3" name="本体価格" dataDxfId="0" dataCellStyle="桁区切り"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1153,11 +1187,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31ABDE67-8BA7-47AC-835C-0CB04F7F0A06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.499984740745262"/>
+  </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1168,14 +1205,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="34" t="s">
-        <v>7</v>
+      <c r="C1" s="17" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -1185,7 +1222,7 @@
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="12">
         <v>15900</v>
       </c>
     </row>
@@ -1196,7 +1233,7 @@
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="12">
         <v>19900</v>
       </c>
     </row>
@@ -1207,7 +1244,7 @@
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="12">
         <v>49400</v>
       </c>
     </row>
@@ -1218,7 +1255,7 @@
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="12">
         <v>9800</v>
       </c>
     </row>
@@ -1229,7 +1266,7 @@
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="12">
         <v>14000</v>
       </c>
     </row>
@@ -1240,7 +1277,7 @@
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="12">
         <v>25400</v>
       </c>
     </row>
@@ -1251,7 +1288,7 @@
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="12">
         <v>12300</v>
       </c>
     </row>
@@ -1262,18 +1299,18 @@
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="12">
         <v>26700</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="30">
+      <c r="A10" s="13">
         <v>3003</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="14">
         <v>3500</v>
       </c>
     </row>
@@ -1287,258 +1324,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F60ECE-1BBB-485E-914E-EE587C0A597C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.499984740745262"/>
+  </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="10.69921875" customWidth="1"/>
-    <col min="2" max="2" width="25.296875" customWidth="1"/>
-    <col min="3" max="5" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="38"/>
-      <c r="D3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="36">
-        <v>100123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="D4" s="37">
-        <v>44677</v>
-      </c>
-      <c r="E4" s="37"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="17">
-        <f>E19</f>
-        <v>194370</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="E7" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="E8" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="35">
-        <v>1001</v>
-      </c>
-      <c r="B11" s="2" t="str">
-        <f>VLOOKUP($A11,商品リスト!$A$1:$C$10,2,0)</f>
-        <v>折りたたみテーブル</v>
-      </c>
-      <c r="C11" s="7">
-        <f>VLOOKUP($A11,商品リスト!$A$1:$C$10,3,0)</f>
-        <v>15900</v>
-      </c>
-      <c r="D11" s="35">
-        <v>2</v>
-      </c>
-      <c r="E11" s="7">
-        <f>C11*D11</f>
-        <v>31800</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="35">
-        <v>1002</v>
-      </c>
-      <c r="B12" s="2" t="str">
-        <f>VLOOKUP($A12,商品リスト!$A$1:$C$10,2,0)</f>
-        <v>ラウンドテーブル</v>
-      </c>
-      <c r="C12" s="7">
-        <f>VLOOKUP($A12,商品リスト!$A$1:$C$10,3,0)</f>
-        <v>19900</v>
-      </c>
-      <c r="D12" s="35">
-        <v>2</v>
-      </c>
-      <c r="E12" s="7">
-        <f t="shared" ref="E12:E14" si="0">C12*D12</f>
-        <v>39800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="35">
-        <v>2001</v>
-      </c>
-      <c r="B13" s="2" t="str">
-        <f>VLOOKUP($A13,商品リスト!$A$1:$C$10,2,0)</f>
-        <v>OAチェア</v>
-      </c>
-      <c r="C13" s="7">
-        <f>VLOOKUP($A13,商品リスト!$A$1:$C$10,3,0)</f>
-        <v>9800</v>
-      </c>
-      <c r="D13" s="35">
-        <v>8</v>
-      </c>
-      <c r="E13" s="7">
-        <f t="shared" si="0"/>
-        <v>78400</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="35">
-        <v>3002</v>
-      </c>
-      <c r="B14" s="2" t="str">
-        <f>VLOOKUP($A14,商品リスト!$A$1:$C$10,2,0)</f>
-        <v>ホワイトボード</v>
-      </c>
-      <c r="C14" s="7">
-        <f>VLOOKUP($A14,商品リスト!$A$1:$C$10,3,0)</f>
-        <v>26700</v>
-      </c>
-      <c r="D14" s="35">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7">
-        <f t="shared" si="0"/>
-        <v>26700</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="7">
-        <f>SUM(E11:E16)</f>
-        <v>176700</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="E18" s="7">
-        <f>E17*D18</f>
-        <v>17670</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16">
-        <f>SUM(E17:E18)</f>
-        <v>194370</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A3:B4"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2CEB4C7-076F-4598-BA8C-67A10DFDB9B8}">
-  <dimension ref="A1:E19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A16"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1550,7 +1343,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A1" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -1565,243 +1358,253 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="12" t="str">
-        <f>請求書!A3</f>
-        <v>株式会社XYZアシスタント 様</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="D3" s="11" t="s">
+      <c r="A3" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="D3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="11">
-        <f>請求書!E3</f>
+      <c r="E3" s="19">
         <v>100123</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="D4" s="8">
-        <f>請求書!D4</f>
-        <v>44677</v>
-      </c>
-      <c r="E4" s="8"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="D4" s="42">
+        <f ca="1">TODAY()</f>
+        <v>45146</v>
+      </c>
+      <c r="E4" s="42"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="9" t="str">
-        <f>請求書!E6</f>
-        <v>〒110-0000</v>
+        <v>4</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="21">
+      <c r="A7" s="31">
         <f>E19</f>
         <v>194370</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="E7" s="9" t="str">
-        <f>請求書!E7</f>
-        <v>東京都台東区上野x-xx-x</v>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="E7" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="E8" s="9" t="str">
-        <f>請求書!E8</f>
-        <v>株式会社○×什器販売</v>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="E8" s="7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="32" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="2">
-        <f>請求書!A11</f>
+      <c r="A11" s="39">
         <v>1001</v>
       </c>
       <c r="B11" s="2" t="str">
-        <f>VLOOKUP($A11,商品リスト!$A$1:$C$10,2,0)</f>
+        <f>IF(A11="","",VLOOKUP($A11,テーブル2[],2,0))</f>
         <v>折りたたみテーブル</v>
       </c>
-      <c r="C11" s="7">
-        <f>VLOOKUP($A11,商品リスト!$A$1:$C$10,3,0)</f>
+      <c r="C11" s="6">
+        <f>IFERROR(VLOOKUP($A11,テーブル2[],3,0),"")</f>
         <v>15900</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="18">
         <v>2</v>
       </c>
-      <c r="E11" s="7">
-        <f>C11*D11</f>
+      <c r="E11" s="6">
+        <f>IFERROR(C11*D11,"")</f>
         <v>31800</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="2">
-        <f>請求書!A12</f>
+      <c r="A12" s="39">
         <v>1002</v>
       </c>
       <c r="B12" s="2" t="str">
-        <f>VLOOKUP($A12,商品リスト!$A$1:$C$10,2,0)</f>
+        <f>IF(A12="","",VLOOKUP($A12,テーブル2[],2,0))</f>
         <v>ラウンドテーブル</v>
       </c>
-      <c r="C12" s="7">
-        <f>VLOOKUP($A12,商品リスト!$A$1:$C$10,3,0)</f>
+      <c r="C12" s="6">
+        <f>IFERROR(VLOOKUP($A12,テーブル2[],3,0),"")</f>
         <v>19900</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="18">
         <v>2</v>
       </c>
-      <c r="E12" s="7">
-        <f t="shared" ref="E12:E14" si="0">C12*D12</f>
+      <c r="E12" s="6">
+        <f t="shared" ref="E12:E16" si="0">IFERROR(C12*D12,"")</f>
         <v>39800</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="2">
-        <f>請求書!A13</f>
+      <c r="A13" s="39">
         <v>2001</v>
       </c>
       <c r="B13" s="2" t="str">
-        <f>VLOOKUP($A13,商品リスト!$A$1:$C$10,2,0)</f>
+        <f>IF(A13="","",VLOOKUP($A13,テーブル2[],2,0))</f>
         <v>OAチェア</v>
       </c>
-      <c r="C13" s="7">
-        <f>VLOOKUP($A13,商品リスト!$A$1:$C$10,3,0)</f>
+      <c r="C13" s="6">
+        <f>IFERROR(VLOOKUP($A13,テーブル2[],3,0),"")</f>
         <v>9800</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="18">
         <v>8</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <f t="shared" si="0"/>
         <v>78400</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="2">
-        <f>請求書!A14</f>
+      <c r="A14" s="39">
         <v>3002</v>
       </c>
       <c r="B14" s="2" t="str">
-        <f>VLOOKUP($A14,商品リスト!$A$1:$C$10,2,0)</f>
+        <f>IF(A14="","",VLOOKUP($A14,テーブル2[],2,0))</f>
         <v>ホワイトボード</v>
       </c>
-      <c r="C14" s="7">
-        <f>VLOOKUP($A14,商品リスト!$A$1:$C$10,3,0)</f>
+      <c r="C14" s="6">
+        <f>IFERROR(VLOOKUP($A14,テーブル2[],3,0),"")</f>
         <v>26700</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="18">
         <v>1</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <f t="shared" si="0"/>
         <v>26700</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="2">
-        <f>請求書!A15</f>
-        <v>0</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="2" t="str">
+        <f>IF(A15="","",VLOOKUP($A15,テーブル2[],2,0))</f>
+        <v/>
+      </c>
+      <c r="C15" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A15,テーブル2[],3,0),"")</f>
+        <v/>
+      </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="7"/>
+      <c r="E15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="2">
-        <f>請求書!A16</f>
-        <v>0</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="2" t="str">
+        <f>IF(A16="","",VLOOKUP($A16,テーブル2[],2,0))</f>
+        <v/>
+      </c>
+      <c r="C16" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A16,テーブル2[],3,0),"")</f>
+        <v/>
+      </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="7"/>
+      <c r="E16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="7">
+      <c r="D17" s="34"/>
+      <c r="E17" s="6">
         <f>SUM(E11:E16)</f>
         <v>176700</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="22" t="s">
+      <c r="A18" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="30">
         <v>0.1</v>
       </c>
-      <c r="E18" s="7">
-        <f>E17*D18</f>
+      <c r="E18" s="6">
+        <f>ROUNDDOWN(E17*D18,0)</f>
         <v>17670</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="16">
+      <c r="D19" s="34"/>
+      <c r="E19" s="9">
         <f>SUM(E17:E18)</f>
         <v>194370</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="6">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="D4:E4"/>
     <mergeCell ref="A7:C8"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C19:D19"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A3:B4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <dataValidations count="1">
+    <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:E19 C11:D16"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABEC05F-DA71-45D5-9AE2-4F1F2376091E}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="-0.499984740745262"/>
+  </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1812,13 +1615,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="A1" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -1827,185 +1630,491 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="12" t="str">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="23" t="str">
         <f>請求書!A3</f>
         <v>株式会社XYZアシスタント 様</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="23"/>
+      <c r="D3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="8">
         <f>請求書!E3</f>
         <v>100123</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="D4" s="42">
+        <f ca="1">TODAY()</f>
+        <v>45146</v>
+      </c>
+      <c r="E4" s="42"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="7" t="str">
+        <f>請求書!E6</f>
+        <v>〒110-0000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="24">
+        <f>E19</f>
+        <v>194370</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="E7" s="7" t="str">
+        <f>請求書!E7</f>
+        <v>東京都台東区上野x-xx-x</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="E8" s="7" t="str">
+        <f>請求書!E8</f>
+        <v>株式会社○×什器販売</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="40">
+        <f>IF(請求書!A11="","",請求書!A11)</f>
+        <v>1001</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>IF(A11="","",請求書!B11)</f>
+        <v>折りたたみテーブル</v>
+      </c>
+      <c r="C11" s="6">
+        <f>IF(A11="","",請求書!C11)</f>
+        <v>15900</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="6">
+        <f>IFERROR(C11*D11,"")</f>
+        <v>31800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="40">
+        <f>IF(請求書!A12="","",請求書!A12)</f>
+        <v>1002</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>IF(A12="","",請求書!B12)</f>
+        <v>ラウンドテーブル</v>
+      </c>
+      <c r="C12" s="6">
+        <f>IF(A12="","",請求書!C12)</f>
+        <v>19900</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" ref="E12:E16" si="0">IFERROR(C12*D12,"")</f>
+        <v>39800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="40">
+        <f>IF(請求書!A13="","",請求書!A13)</f>
+        <v>2001</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>IF(A13="","",請求書!B13)</f>
+        <v>OAチェア</v>
+      </c>
+      <c r="C13" s="6">
+        <f>IF(A13="","",請求書!C13)</f>
+        <v>9800</v>
+      </c>
+      <c r="D13" s="2">
+        <v>8</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="0"/>
+        <v>78400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="40">
+        <f>IF(請求書!A14="","",請求書!A14)</f>
+        <v>3002</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>IF(A14="","",請求書!B14)</f>
+        <v>ホワイトボード</v>
+      </c>
+      <c r="C14" s="6">
+        <f>IF(A14="","",請求書!C14)</f>
+        <v>26700</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
+        <v>26700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="40" t="str">
+        <f>IF(請求書!A15="","",請求書!A15)</f>
+        <v/>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>IF(A15="","",請求書!B15)</f>
+        <v/>
+      </c>
+      <c r="C15" s="6" t="str">
+        <f>IF(A15="","",請求書!C15)</f>
+        <v/>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="40" t="str">
+        <f>IF(請求書!A16="","",請求書!A16)</f>
+        <v/>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>IF(A16="","",請求書!B16)</f>
+        <v/>
+      </c>
+      <c r="C16" s="6" t="str">
+        <f>IF(A16="","",請求書!C16)</f>
+        <v/>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="6">
+        <f>SUM(E11:E16)</f>
+        <v>176700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="30">
+        <f>請求書!D18</f>
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="6">
+        <f>E17*D18</f>
+        <v>17670</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="9">
+        <f>SUM(E17:E18)</f>
+        <v>194370</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <mergeCells count="6">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="C17:D17"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <dataValidations count="1">
+    <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11:D16 E11:E19"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.69921875" customWidth="1"/>
+    <col min="2" max="2" width="25.296875" customWidth="1"/>
+    <col min="3" max="5" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A1" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="23" t="str">
+        <f>請求書!A3</f>
+        <v>株式会社XYZアシスタント 様</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="D3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <f>請求書!E3</f>
+        <v>100123</v>
+      </c>
+    </row>
     <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="D4" s="8">
-        <f>請求書!D4</f>
-        <v>44677</v>
-      </c>
-      <c r="E4" s="8"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="D4" s="41">
+        <f ca="1">請求書!D4</f>
+        <v>45146</v>
+      </c>
+      <c r="E4" s="41"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="9" t="str">
+      <c r="E6" s="7" t="str">
         <f>請求書!E6</f>
         <v>〒110-0000</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="E7" s="9" t="str">
+      <c r="A7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="E7" s="7" t="str">
         <f>請求書!E7</f>
         <v>東京都台東区上野x-xx-x</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="E8" s="9" t="str">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="E8" s="7" t="str">
         <f>請求書!E8</f>
         <v>株式会社○×什器販売</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="2">
-        <f>請求書!A11</f>
+      <c r="A11" s="40">
+        <f>IF(請求書!A11="","",請求書!A11)</f>
         <v>1001</v>
       </c>
       <c r="B11" s="2" t="str">
-        <f>VLOOKUP($A11,商品リスト!$A$1:$C$10,2,0)</f>
+        <f>IF(A11="","",請求書!B11)</f>
         <v>折りたたみテーブル</v>
       </c>
-      <c r="C11" s="7">
-        <f>VLOOKUP($A11,商品リスト!$A$1:$C$10,3,0)</f>
+      <c r="C11" s="6">
+        <f>IF(A11="","",請求書!C11)</f>
         <v>15900</v>
       </c>
       <c r="D11" s="2">
         <v>2</v>
       </c>
-      <c r="E11" s="7">
-        <f>C11*D11</f>
+      <c r="E11" s="6">
+        <f>IFERROR(C11*D11,"")</f>
         <v>31800</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="2">
-        <f>請求書!A12</f>
+      <c r="A12" s="40">
+        <f>IF(請求書!A12="","",請求書!A12)</f>
         <v>1002</v>
       </c>
       <c r="B12" s="2" t="str">
-        <f>VLOOKUP($A12,商品リスト!$A$1:$C$10,2,0)</f>
+        <f>IF(A12="","",請求書!B12)</f>
         <v>ラウンドテーブル</v>
       </c>
-      <c r="C12" s="7">
-        <f>VLOOKUP($A12,商品リスト!$A$1:$C$10,3,0)</f>
+      <c r="C12" s="6">
+        <f>IF(A12="","",請求書!C12)</f>
         <v>19900</v>
       </c>
       <c r="D12" s="2">
         <v>2</v>
       </c>
-      <c r="E12" s="7">
-        <f t="shared" ref="E12:E14" si="0">C12*D12</f>
+      <c r="E12" s="6">
+        <f t="shared" ref="E12:E16" si="0">IFERROR(C12*D12,"")</f>
         <v>39800</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="2">
-        <f>請求書!A13</f>
+      <c r="A13" s="40">
+        <f>IF(請求書!A13="","",請求書!A13)</f>
         <v>2001</v>
       </c>
       <c r="B13" s="2" t="str">
-        <f>VLOOKUP($A13,商品リスト!$A$1:$C$10,2,0)</f>
+        <f>IF(A13="","",請求書!B13)</f>
         <v>OAチェア</v>
       </c>
-      <c r="C13" s="7">
-        <f>VLOOKUP($A13,商品リスト!$A$1:$C$10,3,0)</f>
+      <c r="C13" s="6">
+        <f>IF(A13="","",請求書!C13)</f>
         <v>9800</v>
       </c>
       <c r="D13" s="2">
         <v>8</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <f t="shared" si="0"/>
         <v>78400</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="2">
-        <f>請求書!A14</f>
+      <c r="A14" s="40">
+        <f>IF(請求書!A14="","",請求書!A14)</f>
         <v>3002</v>
       </c>
       <c r="B14" s="2" t="str">
-        <f>VLOOKUP($A14,商品リスト!$A$1:$C$10,2,0)</f>
+        <f>IF(A14="","",請求書!B14)</f>
         <v>ホワイトボード</v>
       </c>
-      <c r="C14" s="7">
-        <f>VLOOKUP($A14,商品リスト!$A$1:$C$10,3,0)</f>
+      <c r="C14" s="6">
+        <f>IF(A14="","",請求書!C14)</f>
         <v>26700</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <f t="shared" si="0"/>
         <v>26700</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="2">
-        <f>請求書!A15</f>
-        <v>0</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="40" t="str">
+        <f>IF(請求書!A15="","",請求書!A15)</f>
+        <v/>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>IF(A15="","",請求書!B15)</f>
+        <v/>
+      </c>
+      <c r="C15" s="6" t="str">
+        <f>IF(A15="","",請求書!C15)</f>
+        <v/>
+      </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="7"/>
+      <c r="E15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="2">
-        <f>請求書!A16</f>
-        <v>0</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="40" t="str">
+        <f>IF(請求書!A16="","",請求書!A16)</f>
+        <v/>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>IF(A16="","",請求書!B16)</f>
+        <v/>
+      </c>
+      <c r="C16" s="6" t="str">
+        <f>IF(A16="","",請求書!C16)</f>
+        <v/>
+      </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="7"/>
+      <c r="E16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="7">
+      <c r="D17" s="38"/>
+      <c r="E17" s="6">
         <f>SUM(E11:E16)</f>
         <v>176700</v>
       </c>
@@ -2013,34 +2122,36 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="30">
+        <f>請求書!D18</f>
         <v>0.1</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <f>E17*D18</f>
         <v>17670</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="16">
+      <c r="D19" s="38"/>
+      <c r="E19" s="9">
         <f>SUM(E17:E18)</f>
         <v>194370</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:B4"/>
@@ -2049,6 +2160,10 @@
     <mergeCell ref="C19:D19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <dataValidations count="1">
+    <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11:E16 E17:E19"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>